--- a/public/excelTemplate/资金计划审批额度.xlsx
+++ b/public/excelTemplate/资金计划审批额度.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yosun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\code\h5\boss\public\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -231,9 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -251,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,81 +532,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>1111</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
@@ -621,7 +621,7 @@
       <c r="F3" s="1">
         <v>200</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -629,12 +629,13 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>1211</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
@@ -649,7 +650,7 @@
       <c r="F4" s="1">
         <v>130</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -657,12 +658,13 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>1212</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
@@ -677,7 +679,7 @@
       <c r="F5" s="1">
         <v>700</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -685,12 +687,13 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>1234</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
@@ -705,7 +708,7 @@
       <c r="F6" s="1">
         <v>60</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -713,12 +716,13 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>1231</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -733,7 +737,7 @@
       <c r="F7" s="1">
         <v>290</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -741,12 +745,13 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>1224</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -761,7 +766,7 @@
       <c r="F8" s="1">
         <v>240</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -769,12 +774,13 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>1233</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1">
@@ -789,7 +795,7 @@
       <c r="F9" s="1">
         <v>420</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -797,12 +803,13 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>1334</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1">
@@ -817,7 +824,7 @@
       <c r="F10" s="1">
         <v>130</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -825,12 +832,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>1534</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -845,7 +853,7 @@
       <c r="F11" s="1">
         <v>80</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -853,12 +861,13 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>1934</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1">
@@ -873,7 +882,7 @@
       <c r="F12" s="1">
         <v>360</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -881,6 +890,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
+      <c r="O12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -888,5 +898,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excelTemplate/资金计划审批额度.xlsx
+++ b/public/excelTemplate/资金计划审批额度.xlsx
@@ -24,37 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>聊城万水连</t>
-  </si>
-  <si>
-    <t>徐州万玺连</t>
-  </si>
-  <si>
-    <t>盐城市万辉连</t>
-  </si>
-  <si>
-    <t>青岛万海连</t>
-  </si>
-  <si>
-    <t>金湖万众连</t>
-  </si>
-  <si>
-    <t>南京万汇连</t>
-  </si>
-  <si>
-    <t>镇江万优连</t>
-  </si>
-  <si>
-    <t>宿迁市万邦连</t>
-  </si>
-  <si>
-    <t>连云港万友连</t>
-  </si>
-  <si>
-    <t>徐州万汇连</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>12月</t>
   </si>
@@ -246,11 +216,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,92 +505,80 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1111</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>200</v>
-      </c>
-      <c r="D3" s="1">
-        <v>200</v>
-      </c>
-      <c r="E3" s="1">
-        <v>200</v>
-      </c>
-      <c r="F3" s="1">
-        <v>200</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -629,27 +587,15 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1211</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>120</v>
-      </c>
-      <c r="D4" s="1">
-        <v>130</v>
-      </c>
-      <c r="E4" s="1">
-        <v>130</v>
-      </c>
-      <c r="F4" s="1">
-        <v>130</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -658,27 +604,15 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>1212</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>700</v>
-      </c>
-      <c r="D5" s="1">
-        <v>700</v>
-      </c>
-      <c r="E5" s="1">
-        <v>700</v>
-      </c>
-      <c r="F5" s="1">
-        <v>700</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -687,27 +621,15 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>1234</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1">
-        <v>60</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -716,27 +638,15 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>1231</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>280</v>
-      </c>
-      <c r="D7" s="1">
-        <v>280</v>
-      </c>
-      <c r="E7" s="1">
-        <v>280</v>
-      </c>
-      <c r="F7" s="1">
-        <v>290</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -745,27 +655,15 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>1224</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>300</v>
-      </c>
-      <c r="D8" s="1">
-        <v>300</v>
-      </c>
-      <c r="E8" s="1">
-        <v>300</v>
-      </c>
-      <c r="F8" s="1">
-        <v>240</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -774,27 +672,15 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>1233</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>324</v>
-      </c>
-      <c r="D9" s="1">
-        <v>380</v>
-      </c>
-      <c r="E9" s="1">
-        <v>380</v>
-      </c>
-      <c r="F9" s="1">
-        <v>420</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -803,27 +689,15 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>1334</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>110</v>
-      </c>
-      <c r="E10" s="1">
-        <v>105</v>
-      </c>
-      <c r="F10" s="1">
-        <v>130</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -832,27 +706,15 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>1534</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>80</v>
-      </c>
-      <c r="D11" s="1">
-        <v>80</v>
-      </c>
-      <c r="E11" s="1">
-        <v>80</v>
-      </c>
-      <c r="F11" s="1">
-        <v>80</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -861,27 +723,15 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>1934</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>380</v>
-      </c>
-      <c r="D12" s="1">
-        <v>360</v>
-      </c>
-      <c r="E12" s="1">
-        <v>360</v>
-      </c>
-      <c r="F12" s="1">
-        <v>360</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -890,7 +740,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
